--- a/output/1Y_P84_KFSDIV.xlsx
+++ b/output/1Y_P84_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.0129</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.4583</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="F3" s="1">
-        <v>956.1783</v>
+        <v>954.2622</v>
       </c>
       <c r="H3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0445</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.3341</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E4" s="1">
-        <v>1954.89</v>
+        <v>1950.9731</v>
       </c>
       <c r="F4" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="H4" s="1">
-        <v>20202.0288</v>
+        <v>20121.1656</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20202.0288</v>
+        <v>20121.1656</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2308</v>
+        <v>10.2513</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0119</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2922.5601</v>
+        <v>2916.7088</v>
       </c>
       <c r="F5" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="H5" s="1">
-        <v>28888.338</v>
+        <v>28772.7486</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28888.338</v>
+        <v>28772.7486</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.265</v>
+        <v>10.2856</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>879.7005</v>
+        <v>877.9379</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9120.299499999999</v>
+        <v>-9122.062099999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0435</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3934.2349</v>
+        <v>3926.361</v>
       </c>
       <c r="F6" s="1">
-        <v>1014.2927</v>
+        <v>1012.2395</v>
       </c>
       <c r="H6" s="1">
-        <v>39214.4861</v>
+        <v>39057.8691</v>
       </c>
       <c r="I6" s="1">
-        <v>879.7005</v>
+        <v>877.9379</v>
       </c>
       <c r="J6" s="1">
-        <v>40094.1866</v>
+        <v>39935.807</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1672</v>
+        <v>10.1876</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10109.9626</v>
+        <v>-10109.7422</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.4908</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E7" s="1">
-        <v>4948.5276</v>
+        <v>4938.6006</v>
       </c>
       <c r="F7" s="1">
-        <v>963.698</v>
+        <v>961.7518</v>
       </c>
       <c r="H7" s="1">
-        <v>51914.0132</v>
+        <v>51706.1602</v>
       </c>
       <c r="I7" s="1">
-        <v>769.7379</v>
+        <v>768.1956</v>
       </c>
       <c r="J7" s="1">
-        <v>52683.7511</v>
+        <v>52474.3558</v>
       </c>
       <c r="K7" s="1">
-        <v>50109.9626</v>
+        <v>50109.7422</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1262</v>
+        <v>10.1465</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10109.9626</v>
+        <v>-10109.7422</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0517</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.6308</v>
       </c>
       <c r="C8" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D8" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E8" s="1">
-        <v>5912.2255</v>
+        <v>5900.3523</v>
       </c>
       <c r="F8" s="1">
-        <v>951.0068</v>
+        <v>949.0844</v>
       </c>
       <c r="H8" s="1">
-        <v>62851.6873</v>
+        <v>62599.7881</v>
       </c>
       <c r="I8" s="1">
-        <v>659.7754</v>
+        <v>658.4534</v>
       </c>
       <c r="J8" s="1">
-        <v>63511.4627</v>
+        <v>63258.2415</v>
       </c>
       <c r="K8" s="1">
-        <v>60219.9251</v>
+        <v>60219.4845</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1857</v>
+        <v>10.2061</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10109.9626</v>
+        <v>-10109.7422</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0132</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.3176</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E9" s="1">
-        <v>6863.2323</v>
+        <v>6849.4368</v>
       </c>
       <c r="F9" s="1">
-        <v>979.8754</v>
+        <v>977.8921</v>
       </c>
       <c r="H9" s="1">
-        <v>70812.0855</v>
+        <v>70528.65029999999</v>
       </c>
       <c r="I9" s="1">
-        <v>549.8128</v>
+        <v>548.7112</v>
       </c>
       <c r="J9" s="1">
-        <v>71361.8983</v>
+        <v>71077.3615</v>
       </c>
       <c r="K9" s="1">
-        <v>70329.88770000001</v>
+        <v>70329.2267</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2473</v>
+        <v>10.2679</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10109.9626</v>
+        <v>-10109.7422</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0292</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.2392</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E10" s="1">
-        <v>7843.1077</v>
+        <v>7827.3289</v>
       </c>
       <c r="F10" s="1">
-        <v>987.3782</v>
+        <v>985.3838</v>
       </c>
       <c r="H10" s="1">
-        <v>80307.14840000001</v>
+        <v>79985.1257</v>
       </c>
       <c r="I10" s="1">
-        <v>439.8503</v>
+        <v>438.9689</v>
       </c>
       <c r="J10" s="1">
-        <v>80746.9987</v>
+        <v>80424.0947</v>
       </c>
       <c r="K10" s="1">
-        <v>80439.85030000001</v>
+        <v>80438.96890000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2561</v>
+        <v>10.2767</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10109.9626</v>
+        <v>-10109.7422</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D11" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8830.4859</v>
+        <v>8812.7127</v>
       </c>
       <c r="F11" s="1">
-        <v>1013.1238</v>
+        <v>1011.0753</v>
       </c>
       <c r="H11" s="1">
-        <v>88118.5355</v>
+        <v>87765.8058</v>
       </c>
       <c r="I11" s="1">
-        <v>329.8877</v>
+        <v>329.2267</v>
       </c>
       <c r="J11" s="1">
-        <v>88448.4232</v>
+        <v>88095.0325</v>
       </c>
       <c r="K11" s="1">
-        <v>90549.8128</v>
+        <v>90548.71120000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2542</v>
+        <v>10.2748</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1764.6992</v>
+        <v>1761.149</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8345.263300000001</v>
+        <v>-8348.593199999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0253</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.1873</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E12" s="1">
-        <v>9843.609700000001</v>
+        <v>9823.788</v>
       </c>
       <c r="F12" s="1">
-        <v>1079.0212</v>
+        <v>1076.6693</v>
       </c>
       <c r="H12" s="1">
-        <v>100279.805</v>
+        <v>99877.4705</v>
       </c>
       <c r="I12" s="1">
-        <v>1984.6244</v>
+        <v>1980.6335</v>
       </c>
       <c r="J12" s="1">
-        <v>102264.4294</v>
+        <v>101858.104</v>
       </c>
       <c r="K12" s="1">
-        <v>100659.7754</v>
+        <v>100658.4534</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2259</v>
+        <v>10.2464</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10992.3122</v>
+        <v>-10990.3167</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0388</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.4058</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E13" s="1">
-        <v>10922.6308</v>
+        <v>10900.4573</v>
       </c>
       <c r="F13" s="1">
-        <v>1056.364</v>
+        <v>1054.0551</v>
       </c>
       <c r="H13" s="1">
-        <v>113658.7121</v>
+        <v>113201.2489</v>
       </c>
       <c r="I13" s="1">
-        <v>992.3122</v>
+        <v>990.3167</v>
       </c>
       <c r="J13" s="1">
-        <v>114651.0242</v>
+        <v>114191.5656</v>
       </c>
       <c r="K13" s="1">
-        <v>111652.0876</v>
+        <v>111648.7701</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2221</v>
+        <v>10.2426</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10992.3122</v>
+        <v>-10990.3167</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0213</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.2688</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E14" s="1">
-        <v>11978.9948</v>
+        <v>11954.5124</v>
       </c>
       <c r="F14" s="1">
-        <v>-11978.9948</v>
+        <v>-11954.5124</v>
       </c>
       <c r="H14" s="1">
-        <v>123009.9019</v>
+        <v>122513.4297</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>123009.9019</v>
+        <v>122513.4297</v>
       </c>
       <c r="K14" s="1">
-        <v>122644.3997</v>
+        <v>122639.0869</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2383</v>
+        <v>10.2588</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>983.0368</v>
+        <v>981.0412</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123992.9387</v>
+        <v>123494.4708</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.0129</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.4583</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="F3" s="1">
-        <v>913.645</v>
+        <v>919.4752</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9555.1738</v>
+        <v>-9635.456099999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0445</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.3341</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E4" s="1">
-        <v>1912.3567</v>
+        <v>1916.186</v>
       </c>
       <c r="F4" s="1">
-        <v>990.6537</v>
+        <v>992.651</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19762.4853</v>
+        <v>19762.3929</v>
       </c>
       <c r="I4" s="1">
-        <v>444.8262</v>
+        <v>364.5439</v>
       </c>
       <c r="J4" s="1">
-        <v>20207.3115</v>
+        <v>20126.9368</v>
       </c>
       <c r="K4" s="1">
-        <v>19555.1738</v>
+        <v>19635.4561</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2257</v>
+        <v>10.2472</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10237.5147</v>
+        <v>-10278.7028</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0116</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2903.0104</v>
+        <v>2908.837</v>
       </c>
       <c r="F5" s="1">
-        <v>1032.6479</v>
+        <v>1018.3192</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28695.0968</v>
+        <v>28695.0957</v>
       </c>
       <c r="I5" s="1">
-        <v>207.3115</v>
+        <v>85.84099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>28902.4083</v>
+        <v>28780.9367</v>
       </c>
       <c r="K5" s="1">
-        <v>29792.6885</v>
+        <v>29914.159</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2627</v>
+        <v>10.2839</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>860.5605</v>
+        <v>862.2837</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9346.751</v>
+        <v>-9223.5573</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0432</v>
+        <v>-0.0447</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3935.6583</v>
+        <v>3927.1563</v>
       </c>
       <c r="F6" s="1">
-        <v>1080.6447</v>
+        <v>1087.5879</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39228.6744</v>
+        <v>39065.7798</v>
       </c>
       <c r="I6" s="1">
-        <v>860.5605</v>
+        <v>862.2837</v>
       </c>
       <c r="J6" s="1">
-        <v>40089.2349</v>
+        <v>39928.0636</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1635</v>
+        <v>10.1855</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10771.3256</v>
+        <v>-10862.2837</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0305</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.4908</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E7" s="1">
-        <v>5016.303</v>
+        <v>5014.7441</v>
       </c>
       <c r="F7" s="1">
-        <v>702.9939000000001</v>
+        <v>716.0244</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52625.0314</v>
+        <v>52503.3682</v>
       </c>
       <c r="I7" s="1">
-        <v>89.2349</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>52714.2662</v>
+        <v>52503.3682</v>
       </c>
       <c r="K7" s="1">
-        <v>50771.3256</v>
+        <v>50862.2837</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1213</v>
+        <v>10.1425</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7374.9686</v>
+        <v>-7526.7048</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0524</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.6308</v>
       </c>
       <c r="C8" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D8" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E8" s="1">
-        <v>5719.2969</v>
+        <v>5730.7685</v>
       </c>
       <c r="F8" s="1">
-        <v>865.3439</v>
+        <v>867.0919</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60800.7016</v>
+        <v>60800.5884</v>
       </c>
       <c r="I8" s="1">
-        <v>2714.2662</v>
+        <v>2473.2952</v>
       </c>
       <c r="J8" s="1">
-        <v>63514.9678</v>
+        <v>63273.8835</v>
       </c>
       <c r="K8" s="1">
-        <v>58146.2943</v>
+        <v>58388.9885</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1667</v>
+        <v>10.1887</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9199.2984</v>
+        <v>-9236.3498</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0128</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.3176</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E9" s="1">
-        <v>6584.6409</v>
+        <v>6597.8604</v>
       </c>
       <c r="F9" s="1">
-        <v>1169.1003</v>
+        <v>1171.3928</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67937.6905</v>
+        <v>67938.1686</v>
       </c>
       <c r="I9" s="1">
-        <v>3514.9678</v>
+        <v>3236.9454</v>
       </c>
       <c r="J9" s="1">
-        <v>71452.6583</v>
+        <v>71175.114</v>
       </c>
       <c r="K9" s="1">
-        <v>67345.59269999999</v>
+        <v>67625.3383</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2277</v>
+        <v>10.2496</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12062.3095</v>
+        <v>-12110.2099</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0281</v>
+        <v>-0.0286</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.2392</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E10" s="1">
-        <v>7753.7412</v>
+        <v>7769.2532</v>
       </c>
       <c r="F10" s="1">
-        <v>1036.008</v>
+        <v>1038.1294</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79392.1067</v>
+        <v>79391.6675</v>
       </c>
       <c r="I10" s="1">
-        <v>1452.6583</v>
+        <v>1126.7355</v>
       </c>
       <c r="J10" s="1">
-        <v>80844.765</v>
+        <v>80518.40300000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79407.9022</v>
+        <v>79735.5482</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2412</v>
+        <v>10.263</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10607.8933</v>
+        <v>-10650.8958</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0075</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D11" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8789.7492</v>
+        <v>8807.3825</v>
       </c>
       <c r="F11" s="1">
-        <v>1086.7587</v>
+        <v>1047.6887</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87712.02830000001</v>
+        <v>87712.7228</v>
       </c>
       <c r="I11" s="1">
-        <v>844.765</v>
+        <v>475.8397</v>
       </c>
       <c r="J11" s="1">
-        <v>88556.7933</v>
+        <v>88188.5624</v>
       </c>
       <c r="K11" s="1">
-        <v>90015.79549999999</v>
+        <v>90386.444</v>
       </c>
       <c r="L11" s="1">
-        <v>10.241</v>
+        <v>10.2626</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1744.5918</v>
+        <v>1748.082</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9100.173199999999</v>
+        <v>-8727.7577</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0252</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.1873</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E12" s="1">
-        <v>9876.507900000001</v>
+        <v>9855.0713</v>
       </c>
       <c r="F12" s="1">
-        <v>921.2501</v>
+        <v>964.3525</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100614.9488</v>
+        <v>100195.5242</v>
       </c>
       <c r="I12" s="1">
-        <v>1744.5918</v>
+        <v>1748.082</v>
       </c>
       <c r="J12" s="1">
-        <v>102359.5406</v>
+        <v>101943.6062</v>
       </c>
       <c r="K12" s="1">
-        <v>100860.5605</v>
+        <v>100862.2837</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2122</v>
+        <v>10.2346</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9385.0512</v>
+        <v>-9843.821400000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0386</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.4058</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E13" s="1">
-        <v>10797.758</v>
+        <v>10819.4238</v>
       </c>
       <c r="F13" s="1">
-        <v>734.2722</v>
+        <v>735.7038</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112359.3101</v>
+        <v>112359.7163</v>
       </c>
       <c r="I13" s="1">
-        <v>2359.5406</v>
+        <v>1904.2606</v>
       </c>
       <c r="J13" s="1">
-        <v>114718.8507</v>
+        <v>114263.9769</v>
       </c>
       <c r="K13" s="1">
-        <v>110245.6117</v>
+        <v>110706.1051</v>
       </c>
       <c r="L13" s="1">
-        <v>10.21</v>
+        <v>10.2322</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7640.6899</v>
+        <v>-7670.9625</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.021</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.2688</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E14" s="1">
-        <v>11532.0302</v>
+        <v>11555.1276</v>
       </c>
       <c r="F14" s="1">
-        <v>-11532.0302</v>
+        <v>-11555.1276</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118420.1119</v>
+        <v>118420.4141</v>
       </c>
       <c r="I14" s="1">
-        <v>4718.8507</v>
+        <v>4233.2981</v>
       </c>
       <c r="J14" s="1">
-        <v>123138.9626</v>
+        <v>122653.7121</v>
       </c>
       <c r="K14" s="1">
-        <v>117886.3016</v>
+        <v>118377.0676</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2225</v>
+        <v>10.2445</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>971.7982</v>
+        <v>973.7481</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119391.9101</v>
+        <v>119394.1622</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0127</v>
+        <v>-0.013</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.0129</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.4583</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="F3" s="1">
-        <v>918.4259</v>
+        <v>924.2655999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9605.1738</v>
+        <v>-9685.6569</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0445</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.3341</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E4" s="1">
-        <v>1917.1376</v>
+        <v>1920.9765</v>
       </c>
       <c r="F4" s="1">
-        <v>1000.4121</v>
+        <v>996.0929</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19811.8915</v>
+        <v>19811.7989</v>
       </c>
       <c r="I4" s="1">
-        <v>394.8262</v>
+        <v>314.3431</v>
       </c>
       <c r="J4" s="1">
-        <v>20206.7177</v>
+        <v>20126.1421</v>
       </c>
       <c r="K4" s="1">
-        <v>19605.1738</v>
+        <v>19685.6569</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2263</v>
+        <v>10.2477</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10338.3585</v>
+        <v>-10314.3431</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0116</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2917.5497</v>
+        <v>2917.0694</v>
       </c>
       <c r="F5" s="1">
-        <v>1017.3874</v>
+        <v>1009.6523</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28838.8114</v>
+        <v>28776.3065</v>
       </c>
       <c r="I5" s="1">
-        <v>56.4677</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28895.2791</v>
+        <v>28776.3065</v>
       </c>
       <c r="K5" s="1">
-        <v>29943.5323</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2632</v>
+        <v>10.2843</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>862.7119</v>
+        <v>864.4394</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9193.755800000001</v>
+        <v>-9135.560600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0434</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3934.9371</v>
+        <v>3926.7217</v>
       </c>
       <c r="F6" s="1">
-        <v>1089.8131</v>
+        <v>1087.8037</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39221.4854</v>
+        <v>39061.4568</v>
       </c>
       <c r="I6" s="1">
-        <v>862.7119</v>
+        <v>864.4394</v>
       </c>
       <c r="J6" s="1">
-        <v>40084.1973</v>
+        <v>39925.8962</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1653</v>
+        <v>10.1866</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10862.7119</v>
+        <v>-10864.4394</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0306</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.4908</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E7" s="1">
-        <v>5024.7502</v>
+        <v>5014.5254</v>
       </c>
       <c r="F7" s="1">
-        <v>766.5163</v>
+        <v>788.3570999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52713.6491</v>
+        <v>52501.078</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>52713.6491</v>
+        <v>52501.078</v>
       </c>
       <c r="K7" s="1">
-        <v>50862.7119</v>
+        <v>50864.4394</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1224</v>
+        <v>10.1434</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8041.3697</v>
+        <v>-8287.051799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0525</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.6308</v>
       </c>
       <c r="C8" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D8" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E8" s="1">
-        <v>5791.2665</v>
+        <v>5802.8825</v>
       </c>
       <c r="F8" s="1">
-        <v>892.9712</v>
+        <v>894.7747000000001</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61565.7961</v>
+        <v>61565.6815</v>
       </c>
       <c r="I8" s="1">
-        <v>1958.6303</v>
+        <v>1712.9482</v>
       </c>
       <c r="J8" s="1">
-        <v>63524.4264</v>
+        <v>63278.6297</v>
       </c>
       <c r="K8" s="1">
-        <v>58904.0816</v>
+        <v>59151.4912</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1712</v>
+        <v>10.1935</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9492.997799999999</v>
+        <v>-9531.229799999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0129</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.3176</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E9" s="1">
-        <v>6684.2377</v>
+        <v>6697.6572</v>
       </c>
       <c r="F9" s="1">
-        <v>1206.5594</v>
+        <v>1178.3096</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>68965.29059999999</v>
+        <v>68965.776</v>
       </c>
       <c r="I9" s="1">
-        <v>2465.6325</v>
+        <v>2181.7184</v>
       </c>
       <c r="J9" s="1">
-        <v>71430.9231</v>
+        <v>71147.4944</v>
       </c>
       <c r="K9" s="1">
-        <v>68397.0794</v>
+        <v>68682.72100000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2326</v>
+        <v>10.2547</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12448.7972</v>
+        <v>-12181.7184</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0285</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.2392</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E10" s="1">
-        <v>7890.7971</v>
+        <v>7875.9668</v>
       </c>
       <c r="F10" s="1">
-        <v>978.283</v>
+        <v>974.6874</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80795.4494</v>
+        <v>80482.14200000001</v>
       </c>
       <c r="I10" s="1">
-        <v>16.8353</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80812.2847</v>
+        <v>80482.14200000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80845.8766</v>
+        <v>80864.4394</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2456</v>
+        <v>10.2672</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10016.8353</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0076</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D11" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8869.080099999999</v>
+        <v>8850.654200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88503.66310000001</v>
+        <v>88143.66499999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88503.66310000001</v>
+        <v>88143.66499999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90862.71189999999</v>
+        <v>90864.4394</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2449</v>
+        <v>10.2664</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1775.4293</v>
+        <v>1772.0925</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8224.5707</v>
+        <v>-8227.907499999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.1873</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E12" s="1">
-        <v>9871.184499999999</v>
+        <v>9850.754199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1155.8931</v>
+        <v>1153.2561</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100560.7177</v>
+        <v>100151.6327</v>
       </c>
       <c r="I12" s="1">
-        <v>1775.4293</v>
+        <v>1772.0925</v>
       </c>
       <c r="J12" s="1">
-        <v>102336.1471</v>
+        <v>101923.7253</v>
       </c>
       <c r="K12" s="1">
-        <v>100862.7119</v>
+        <v>100864.4394</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2179</v>
+        <v>10.2393</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11775.4293</v>
+        <v>-11772.0925</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0389</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.4058</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E13" s="1">
-        <v>11027.0775</v>
+        <v>11004.0103</v>
       </c>
       <c r="F13" s="1">
-        <v>827.429</v>
+        <v>874.2394</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114745.5635</v>
+        <v>114276.6471</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>114745.5635</v>
+        <v>114276.6471</v>
       </c>
       <c r="K13" s="1">
-        <v>112638.1413</v>
+        <v>112636.532</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2147</v>
+        <v>10.236</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8610.0602</v>
+        <v>-9115.4324</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.2688</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E14" s="1">
-        <v>11854.5065</v>
+        <v>11878.2498</v>
       </c>
       <c r="F14" s="1">
-        <v>-11854.5065</v>
+        <v>-11878.2498</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121731.5563</v>
+        <v>121731.867</v>
       </c>
       <c r="I14" s="1">
-        <v>1389.9398</v>
+        <v>884.5676</v>
       </c>
       <c r="J14" s="1">
-        <v>123121.4961</v>
+        <v>122616.4346</v>
       </c>
       <c r="K14" s="1">
-        <v>121248.2014</v>
+        <v>121751.9644</v>
       </c>
       <c r="L14" s="1">
-        <v>10.228</v>
+        <v>10.25</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>992.437</v>
+        <v>990.3609</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122723.9933</v>
+        <v>122722.2279</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.013</v>
+        <v>-0.0134</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.0129</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.4583</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="F3" s="1">
-        <v>923.2068</v>
+        <v>929.0561</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9655.1738</v>
+        <v>-9735.857599999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0445</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.3341</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E4" s="1">
-        <v>1921.9185</v>
+        <v>1925.767</v>
       </c>
       <c r="F4" s="1">
-        <v>1001.0379</v>
+        <v>991.2449</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19861.2977</v>
+        <v>19861.2049</v>
       </c>
       <c r="I4" s="1">
-        <v>344.8262</v>
+        <v>264.1424</v>
       </c>
       <c r="J4" s="1">
-        <v>20206.1239</v>
+        <v>20125.3473</v>
       </c>
       <c r="K4" s="1">
-        <v>19655.1738</v>
+        <v>19735.8576</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2269</v>
+        <v>10.2483</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10344.8262</v>
+        <v>-10264.1424</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0117</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2922.9564</v>
+        <v>2917.0118</v>
       </c>
       <c r="F5" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28892.255</v>
+        <v>28775.7383</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28892.255</v>
+        <v>28775.7383</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2636</v>
+        <v>10.2845</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>864.8633</v>
+        <v>866.5951</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9135.136699999999</v>
+        <v>-9133.4049</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0435</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3934.6311</v>
+        <v>3926.6641</v>
       </c>
       <c r="F6" s="1">
-        <v>1090.0289</v>
+        <v>1088.0195</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39218.4359</v>
+        <v>39060.8838</v>
       </c>
       <c r="I6" s="1">
-        <v>864.8633</v>
+        <v>866.5951</v>
       </c>
       <c r="J6" s="1">
-        <v>40083.2992</v>
+        <v>39927.479</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1661</v>
+        <v>10.1868</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10864.8633</v>
+        <v>-10866.5951</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0306</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.4908</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E7" s="1">
-        <v>5024.6601</v>
+        <v>5014.6836</v>
       </c>
       <c r="F7" s="1">
-        <v>839.5401000000001</v>
+        <v>861.2787</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52712.7038</v>
+        <v>52502.7348</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>52712.7038</v>
+        <v>52502.7348</v>
       </c>
       <c r="K7" s="1">
-        <v>50864.8633</v>
+        <v>50866.5951</v>
       </c>
       <c r="L7" s="1">
-        <v>10.123</v>
+        <v>10.1435</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8807.4468</v>
+        <v>-9053.5895</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0525</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.6308</v>
       </c>
       <c r="C8" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D8" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E8" s="1">
-        <v>5864.2001</v>
+        <v>5875.9623</v>
       </c>
       <c r="F8" s="1">
-        <v>921.3054</v>
+        <v>923.1660000000001</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62341.1386</v>
+        <v>62341.0225</v>
       </c>
       <c r="I8" s="1">
-        <v>1192.5532</v>
+        <v>946.4105</v>
       </c>
       <c r="J8" s="1">
-        <v>63533.6919</v>
+        <v>63287.433</v>
       </c>
       <c r="K8" s="1">
-        <v>59672.3101</v>
+        <v>59920.1847</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1757</v>
+        <v>10.1975</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9794.2135</v>
+        <v>-9833.6564</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0131</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.3176</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E9" s="1">
-        <v>6785.5055</v>
+        <v>6799.1283</v>
       </c>
       <c r="F9" s="1">
-        <v>1104.7472</v>
+        <v>1074.9112</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70010.1318</v>
+        <v>70010.62450000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1398.3397</v>
+        <v>1112.754</v>
       </c>
       <c r="J9" s="1">
-        <v>71408.4715</v>
+        <v>71123.37850000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69466.5236</v>
+        <v>69753.84110000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2375</v>
+        <v>10.2592</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11398.3397</v>
+        <v>-11112.754</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0289</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.2392</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E10" s="1">
-        <v>7890.2527</v>
+        <v>7874.0395</v>
       </c>
       <c r="F10" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80789.8757</v>
+        <v>80462.4474</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80789.8757</v>
+        <v>80462.4474</v>
       </c>
       <c r="K10" s="1">
-        <v>80864.8633</v>
+        <v>80866.59510000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2487</v>
+        <v>10.27</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D11" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8866.8915</v>
+        <v>8848.7269</v>
       </c>
       <c r="F11" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88481.8238</v>
+        <v>88124.4709</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88481.8238</v>
+        <v>88124.4709</v>
       </c>
       <c r="K11" s="1">
-        <v>90864.8633</v>
+        <v>90866.59510000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2477</v>
+        <v>10.2689</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1775.3069</v>
+        <v>1771.6589</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8224.6931</v>
+        <v>-8228.3411</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.1873</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E12" s="1">
-        <v>9868.9959</v>
+        <v>9848.8269</v>
       </c>
       <c r="F12" s="1">
-        <v>1155.881</v>
+        <v>1153.2136</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100538.4224</v>
+        <v>100132.038</v>
       </c>
       <c r="I12" s="1">
-        <v>1775.3069</v>
+        <v>1771.6589</v>
       </c>
       <c r="J12" s="1">
-        <v>102313.7293</v>
+        <v>101903.6969</v>
       </c>
       <c r="K12" s="1">
-        <v>100864.8633</v>
+        <v>100866.5951</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2204</v>
+        <v>10.2415</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11775.3069</v>
+        <v>-11771.6589</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0389</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.4058</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E13" s="1">
-        <v>11024.877</v>
+        <v>11002.0405</v>
       </c>
       <c r="F13" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114722.6649</v>
+        <v>114256.1908</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>114722.6649</v>
+        <v>114256.1908</v>
       </c>
       <c r="K13" s="1">
-        <v>112640.1702</v>
+        <v>112638.254</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2169</v>
+        <v>10.2379</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.2688</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E14" s="1">
-        <v>11985.8795</v>
+        <v>11961.1167</v>
       </c>
       <c r="F14" s="1">
-        <v>-11985.8795</v>
+        <v>-11961.1167</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123080.5994</v>
+        <v>122581.1126</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>123080.5994</v>
+        <v>122581.1126</v>
       </c>
       <c r="K14" s="1">
-        <v>122640.1702</v>
+        <v>122638.254</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2321</v>
+        <v>10.2531</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>992.2388999999999</v>
+        <v>990.1836</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124072.8383</v>
+        <v>123571.2963</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.0129</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.4583</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E3" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="F3" s="1">
-        <v>927.9877</v>
+        <v>933.8466</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10444.8262</v>
+        <v>10403.0699</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9705.1738</v>
+        <v>-9786.058300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0445</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.3341</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E4" s="1">
-        <v>1926.6994</v>
+        <v>1930.5574</v>
       </c>
       <c r="F4" s="1">
-        <v>996.1996</v>
+        <v>986.3968</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19910.7039</v>
+        <v>19910.6109</v>
       </c>
       <c r="I4" s="1">
-        <v>294.8262</v>
+        <v>213.9417</v>
       </c>
       <c r="J4" s="1">
-        <v>20205.5301</v>
+        <v>20124.5526</v>
       </c>
       <c r="K4" s="1">
-        <v>19705.1738</v>
+        <v>19786.0583</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2274</v>
+        <v>10.2489</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10294.8262</v>
+        <v>-10213.9417</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0117</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>2922.899</v>
+        <v>2916.9542</v>
       </c>
       <c r="F5" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28891.687</v>
+        <v>28775.1701</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28891.687</v>
+        <v>28775.1701</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.2638</v>
+        <v>10.2847</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>867.0146999999999</v>
+        <v>868.7508</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9132.9853</v>
+        <v>-9131.2492</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0435</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3934.5737</v>
+        <v>3926.6065</v>
       </c>
       <c r="F6" s="1">
-        <v>1090.2448</v>
+        <v>1088.2354</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39217.8632</v>
+        <v>39060.3109</v>
       </c>
       <c r="I6" s="1">
-        <v>867.0146999999999</v>
+        <v>868.7508</v>
       </c>
       <c r="J6" s="1">
-        <v>40084.8779</v>
+        <v>39929.0617</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1663</v>
+        <v>10.1869</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10867.0147</v>
+        <v>-10868.7508</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0307</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.4908</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E7" s="1">
-        <v>5024.8185</v>
+        <v>5014.8419</v>
       </c>
       <c r="F7" s="1">
-        <v>913.2901000000001</v>
+        <v>935.1772</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52714.3654</v>
+        <v>52504.3915</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>52714.3654</v>
+        <v>52504.3915</v>
       </c>
       <c r="K7" s="1">
-        <v>50867.0147</v>
+        <v>50868.7508</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1232</v>
+        <v>10.1436</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9581.143899999999</v>
+        <v>-9830.395200000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0525</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.6308</v>
       </c>
       <c r="C8" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D8" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E8" s="1">
-        <v>5938.1086</v>
+        <v>5950.019</v>
       </c>
       <c r="F8" s="1">
-        <v>950.361</v>
+        <v>952.28</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63126.8445</v>
+        <v>63126.727</v>
       </c>
       <c r="I8" s="1">
-        <v>418.8561</v>
+        <v>169.6048</v>
       </c>
       <c r="J8" s="1">
-        <v>63545.7006</v>
+        <v>63296.3318</v>
       </c>
       <c r="K8" s="1">
-        <v>60448.1586</v>
+        <v>60699.146</v>
       </c>
       <c r="L8" s="1">
-        <v>10.1797</v>
+        <v>10.2015</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10103.0974</v>
+        <v>-10143.7821</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0133</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.3176</v>
       </c>
       <c r="C9" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D9" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E9" s="1">
-        <v>6888.4695</v>
+        <v>6902.2991</v>
       </c>
       <c r="F9" s="1">
-        <v>999.8215</v>
+        <v>969.7748</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71072.4733</v>
+        <v>71072.97349999999</v>
       </c>
       <c r="I9" s="1">
-        <v>315.7587</v>
+        <v>25.8227</v>
       </c>
       <c r="J9" s="1">
-        <v>71388.2319</v>
+        <v>71098.7962</v>
       </c>
       <c r="K9" s="1">
-        <v>70551.2561</v>
+        <v>70842.9281</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2419</v>
+        <v>10.2637</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10315.7587</v>
+        <v>-10025.8227</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0293</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.2392</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E10" s="1">
-        <v>7888.2911</v>
+        <v>7872.0739</v>
       </c>
       <c r="F10" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80769.7899</v>
+        <v>80442.36109999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80769.7899</v>
+        <v>80442.36109999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80867.0147</v>
+        <v>80868.75079999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2515</v>
+        <v>10.2729</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D11" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8864.929899999999</v>
+        <v>8846.761200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>88462.2487</v>
+        <v>88104.895</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88462.2487</v>
+        <v>88104.895</v>
       </c>
       <c r="K11" s="1">
-        <v>90867.0147</v>
+        <v>90868.75079999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2502</v>
+        <v>10.2714</v>
       </c>
       <c r="M11" s="1">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
-        <v>1774.8655</v>
+        <v>1771.2166</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8225.1345</v>
+        <v>-8228.7834</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0254</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.1873</v>
       </c>
       <c r="C12" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D12" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E12" s="1">
-        <v>9867.034299999999</v>
+        <v>9846.861199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1155.8377</v>
+        <v>1153.1703</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100518.4384</v>
+        <v>100112.0535</v>
       </c>
       <c r="I12" s="1">
-        <v>1774.8655</v>
+        <v>1771.2166</v>
       </c>
       <c r="J12" s="1">
-        <v>102293.3039</v>
+        <v>101883.2701</v>
       </c>
       <c r="K12" s="1">
-        <v>100867.0147</v>
+        <v>100868.7508</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2226</v>
+        <v>10.2437</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11774.8655</v>
+        <v>-11771.2166</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0389</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.4058</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E13" s="1">
-        <v>11022.872</v>
+        <v>11000.0315</v>
       </c>
       <c r="F13" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>114701.8014</v>
+        <v>114235.3276</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>114701.8014</v>
+        <v>114235.3276</v>
       </c>
       <c r="K13" s="1">
-        <v>112641.8802</v>
+        <v>112639.9675</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2189</v>
+        <v>10.24</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.2688</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E14" s="1">
-        <v>11983.8745</v>
+        <v>11959.1078</v>
       </c>
       <c r="F14" s="1">
-        <v>-11983.8745</v>
+        <v>-11959.1078</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123060.0106</v>
+        <v>122560.5241</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>123060.0106</v>
+        <v>122560.5241</v>
       </c>
       <c r="K14" s="1">
-        <v>122641.8802</v>
+        <v>122639.9675</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2339</v>
+        <v>10.2549</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>992.0585</v>
+        <v>990.0028</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124052.0691</v>
+        <v>123550.527</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0132</v>
+        <v>-0.0135</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2383</v>
+        <v>10.2588</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2225</v>
+        <v>10.2445</v>
       </c>
       <c r="E3" s="1">
-        <v>10.228</v>
+        <v>10.25</v>
       </c>
       <c r="F3" s="1">
-        <v>10.2321</v>
+        <v>10.2531</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2339</v>
+        <v>10.2549</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0697</v>
+        <v>0.0572</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0716</v>
+        <v>0.0591</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0713</v>
+        <v>0.0586</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0708</v>
+        <v>0.0583</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0706</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0979</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1053</v>
+        <v>0.1044</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1047</v>
+        <v>0.104</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1053</v>
+        <v>0.1044</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1056</v>
+        <v>0.1046</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1057</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.09909999999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>0.4691</v>
+        <v>0.3536</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4894</v>
+        <v>0.3732</v>
       </c>
       <c r="E6" s="4">
-        <v>0.4836</v>
+        <v>0.3669</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4782</v>
+        <v>0.3627</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4751</v>
+        <v>0.3596</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0625</v>
+        <v>0.0547</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0654</v>
+        <v>0.0575</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0646</v>
+        <v>0.0565</v>
       </c>
       <c r="F7" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0558</v>
       </c>
       <c r="G7" s="3">
-        <v>0.06320000000000001</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3627.4365</v>
+        <v>3620.128</v>
       </c>
       <c r="D8" s="1">
-        <v>3576.9505</v>
+        <v>3584.1138</v>
       </c>
       <c r="E8" s="1">
-        <v>3630.5782</v>
+        <v>3626.8929</v>
       </c>
       <c r="F8" s="1">
-        <v>3632.4091</v>
+        <v>3628.4377</v>
       </c>
       <c r="G8" s="1">
-        <v>3633.9387</v>
+        <v>3629.9703</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P84_KFSDIV.xlsx
+++ b/output/1Y_P84_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4395.7282</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0421</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0132</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9995000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
